--- a/public/stories/1887_1_85547968_965799206_2017.xlsx
+++ b/public/stories/1887_1_85547968_965799206_2017.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>Empleador, Habilitado o Pagador</t>
   </si>
@@ -34,7 +34,7 @@
     <t>CERTIFICADO N°</t>
   </si>
   <si>
-    <t>0000099</t>
+    <t>0000101</t>
   </si>
   <si>
     <t>Dirección</t>
@@ -46,7 +46,7 @@
     <t>Ciudad y Fecha</t>
   </si>
   <si>
-    <t>Santiago 23 / 03 / 2018</t>
+    <t>Santiago 30 / 05 / 2018</t>
   </si>
   <si>
     <t>Giro o Actividad</t>
@@ -64,7 +64,7 @@
     <t>certifica que el Sr.</t>
   </si>
   <si>
-    <t>MARCELO PATRICIO ARAVENA PUEBLA</t>
+    <t>ARAVENA PUEBLA, MARCELO PATRICIO</t>
   </si>
   <si>
     <t>8.554.796-8</t>
@@ -196,85 +196,64 @@
     <t>Octubre</t>
   </si>
   <si>
-    <t>$7.213.848</t>
-  </si>
-  <si>
-    <t>$540.257</t>
-  </si>
-  <si>
-    <t>$6.673.591</t>
-  </si>
-  <si>
-    <t>$1.246.876</t>
-  </si>
-  <si>
-    <t>$600.000</t>
-  </si>
-  <si>
-    <t>$6.720.306</t>
-  </si>
-  <si>
-    <t>$1.255.604</t>
-  </si>
-  <si>
-    <t>$604.200</t>
+    <t>$300.000</t>
+  </si>
+  <si>
+    <t>$299.999</t>
+  </si>
+  <si>
+    <t>$1</t>
+  </si>
+  <si>
+    <t>$606.806</t>
+  </si>
+  <si>
+    <t>$611.054</t>
   </si>
   <si>
     <t>Noviembre</t>
   </si>
   <si>
-    <t>$6.977.213</t>
-  </si>
-  <si>
-    <t>$691.346</t>
-  </si>
-  <si>
-    <t>$6.285.867</t>
-  </si>
-  <si>
-    <t>$1.111.196</t>
-  </si>
-  <si>
-    <t>$1.056.456</t>
-  </si>
-  <si>
-    <t>$6.292.153</t>
-  </si>
-  <si>
-    <t>$1.112.307</t>
-  </si>
-  <si>
-    <t>$1.057.512</t>
+    <t>$270.077</t>
+  </si>
+  <si>
+    <t>$270.076</t>
+  </si>
+  <si>
+    <t>$1.063.262</t>
+  </si>
+  <si>
+    <t>$1.064.325</t>
   </si>
   <si>
     <t>Diciembre</t>
   </si>
   <si>
+    <t>$253.000</t>
+  </si>
+  <si>
+    <t>$252.999</t>
+  </si>
+  <si>
+    <t>$756.806</t>
+  </si>
+  <si>
     <t>Totales</t>
   </si>
   <si>
-    <t>$14.191.061</t>
-  </si>
-  <si>
-    <t>$1.231.603</t>
-  </si>
-  <si>
-    <t>$12.959.458</t>
-  </si>
-  <si>
-    <t>$2.358.072</t>
-  </si>
-  <si>
-    <t>$1.656.456</t>
-  </si>
-  <si>
-    <t>$13.012.459</t>
-  </si>
-  <si>
-    <t>$2.367.911</t>
-  </si>
-  <si>
-    <t>$1.661.712</t>
+    <t>$823.077</t>
+  </si>
+  <si>
+    <t>$823.074</t>
+  </si>
+  <si>
+    <t>$3</t>
+  </si>
+  <si>
+    <t>$2.426.874</t>
+  </si>
+  <si>
+    <t>$2.432.185</t>
   </si>
   <si>
     <t>Se extiende el presente certificado en cumplimiento de lo dispuesto el la Resolución Ex. N° 6509 del Servicio de Impuestos Internos, publicada en el Diario Oficial de fecha 20</t>
@@ -3613,7 +3592,7 @@
       <c r="Q33" s="63"/>
       <c r="R33" s="64"/>
       <c r="S33" s="62" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="T33" s="63"/>
       <c r="U33" s="63"/>
@@ -3631,7 +3610,7 @@
       <c r="AC33" s="63"/>
       <c r="AD33" s="64"/>
       <c r="AE33" s="62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF33" s="63"/>
       <c r="AG33" s="63"/>
@@ -3649,13 +3628,13 @@
       <c r="AO33" s="63"/>
       <c r="AP33" s="64"/>
       <c r="AQ33" s="62" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AR33" s="63"/>
       <c r="AS33" s="63"/>
       <c r="AT33" s="64"/>
       <c r="AU33" s="62" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="AV33" s="63"/>
       <c r="AW33" s="63"/>
@@ -3673,7 +3652,7 @@
       <c r="BE33" s="63"/>
       <c r="BF33" s="64"/>
       <c r="BG33" s="59" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="BH33" s="60"/>
       <c r="BI33" s="61"/>
@@ -3691,31 +3670,31 @@
     <row r="34" spans="1:84">
       <c r="B34" s="11"/>
       <c r="C34" s="56" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D34" s="57"/>
       <c r="E34" s="57"/>
       <c r="F34" s="58"/>
       <c r="G34" s="62" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="64"/>
       <c r="K34" s="62" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L34" s="63"/>
       <c r="M34" s="63"/>
       <c r="N34" s="64"/>
       <c r="O34" s="62" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="P34" s="63"/>
       <c r="Q34" s="63"/>
       <c r="R34" s="64"/>
       <c r="S34" s="62" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="T34" s="63"/>
       <c r="U34" s="63"/>
@@ -3733,7 +3712,7 @@
       <c r="AC34" s="63"/>
       <c r="AD34" s="64"/>
       <c r="AE34" s="62" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AF34" s="63"/>
       <c r="AG34" s="63"/>
@@ -3751,13 +3730,13 @@
       <c r="AO34" s="63"/>
       <c r="AP34" s="64"/>
       <c r="AQ34" s="62" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="AR34" s="63"/>
       <c r="AS34" s="63"/>
       <c r="AT34" s="64"/>
       <c r="AU34" s="62" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="AV34" s="63"/>
       <c r="AW34" s="63"/>
@@ -3775,7 +3754,7 @@
       <c r="BE34" s="63"/>
       <c r="BF34" s="64"/>
       <c r="BG34" s="59" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="BH34" s="60"/>
       <c r="BI34" s="61"/>
@@ -3793,25 +3772,25 @@
     <row r="35" spans="1:84">
       <c r="B35" s="11"/>
       <c r="C35" s="56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D35" s="57"/>
       <c r="E35" s="57"/>
       <c r="F35" s="58"/>
       <c r="G35" s="62" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="64"/>
       <c r="K35" s="62" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="L35" s="63"/>
       <c r="M35" s="63"/>
       <c r="N35" s="64"/>
       <c r="O35" s="62" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="P35" s="63"/>
       <c r="Q35" s="63"/>
@@ -3835,7 +3814,7 @@
       <c r="AC35" s="63"/>
       <c r="AD35" s="64"/>
       <c r="AE35" s="62" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="AF35" s="63"/>
       <c r="AG35" s="63"/>
@@ -3847,13 +3826,13 @@
       <c r="AK35" s="63"/>
       <c r="AL35" s="64"/>
       <c r="AM35" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN35" s="63"/>
       <c r="AO35" s="63"/>
       <c r="AP35" s="64"/>
       <c r="AQ35" s="62" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AR35" s="63"/>
       <c r="AS35" s="63"/>
@@ -3877,7 +3856,7 @@
       <c r="BE35" s="63"/>
       <c r="BF35" s="64"/>
       <c r="BG35" s="59" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="BH35" s="60"/>
       <c r="BI35" s="61"/>
@@ -3895,31 +3874,31 @@
     <row r="36" spans="1:84">
       <c r="B36" s="11"/>
       <c r="C36" s="56" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D36" s="57"/>
       <c r="E36" s="57"/>
       <c r="F36" s="58"/>
       <c r="G36" s="62" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="64"/>
       <c r="K36" s="62" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L36" s="63"/>
       <c r="M36" s="63"/>
       <c r="N36" s="64"/>
       <c r="O36" s="62" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P36" s="63"/>
       <c r="Q36" s="63"/>
       <c r="R36" s="64"/>
       <c r="S36" s="62" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="T36" s="63"/>
       <c r="U36" s="63"/>
@@ -3937,7 +3916,7 @@
       <c r="AC36" s="66"/>
       <c r="AD36" s="67"/>
       <c r="AE36" s="65" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AF36" s="66"/>
       <c r="AG36" s="66"/>
@@ -3949,19 +3928,19 @@
       <c r="AK36" s="63"/>
       <c r="AL36" s="64"/>
       <c r="AM36" s="62">
-        <v>2.008</v>
+        <v>3.008</v>
       </c>
       <c r="AN36" s="63"/>
       <c r="AO36" s="63"/>
       <c r="AP36" s="64"/>
       <c r="AQ36" s="62" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AR36" s="63"/>
       <c r="AS36" s="63"/>
       <c r="AT36" s="64"/>
       <c r="AU36" s="62" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="AV36" s="63"/>
       <c r="AW36" s="63"/>
@@ -3979,7 +3958,7 @@
       <c r="BE36" s="63"/>
       <c r="BF36" s="64"/>
       <c r="BG36" s="59" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="BH36" s="60"/>
       <c r="BI36" s="61"/>
@@ -4061,7 +4040,7 @@
     <row r="38" spans="1:84">
       <c r="B38" s="4"/>
       <c r="C38" s="34" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D38" s="34"/>
       <c r="E38" s="34"/>
@@ -4127,7 +4106,7 @@
     <row r="39" spans="1:84">
       <c r="B39" s="4"/>
       <c r="C39" s="34" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D39" s="34"/>
       <c r="E39" s="34"/>
@@ -4368,7 +4347,7 @@
       <c r="AV42" s="22"/>
       <c r="AW42" s="22"/>
       <c r="AX42" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="BA42" s="7"/>
       <c r="BB42" s="7"/>
@@ -4430,7 +4409,7 @@
       <c r="AT43" s="7"/>
       <c r="AU43" s="7"/>
       <c r="AV43" s="44" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AW43" s="44"/>
       <c r="AX43" s="44"/>
